--- a/BasictoAdvancedExcel_Practice_github/Practise Data - Dashboard.xlsx
+++ b/BasictoAdvancedExcel_Practice_github/Practise Data - Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sql\excelclass\assingnments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDE4709-E3B2-45C6-893C-403FBA7EDA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1E2B52-B7D0-4960-B554-716616704EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{62ABEAB2-52AC-4E0A-82A0-9B30E8D39595}"/>
   </bookViews>
@@ -19,8 +19,10 @@
   </sheets>
   <definedNames>
     <definedName name="Slicer_CATEGORY">#N/A</definedName>
+    <definedName name="Slicer_Months__DATE">#N/A</definedName>
     <definedName name="Slicer_PAYMENT_MODE">#N/A</definedName>
     <definedName name="Slicer_SALES_TYPE">#N/A</definedName>
+    <definedName name="Slicer_Years__DATE">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -32,6 +34,8 @@
         <x14:slicerCache r:id="rId5"/>
         <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -54,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="148">
   <si>
     <t>PRODUCT ID</t>
   </si>
@@ -544,15 +548,255 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="152">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
@@ -1100,23 +1344,47 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sales_Dashboard!$A$11:$A$12</c:f>
+              <c:f>Sales_Dashboard!$A$11:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Category01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Category02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Category03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Category04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Category05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sales_Dashboard!$B$11:$B$12</c:f>
+              <c:f>Sales_Dashboard!$B$11:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10967.359999999999</c:v>
+                  <c:v>83629.280000000028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101974.63999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109913.84000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66378.299999999988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73924.380000000034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1209,23 +1477,47 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sales_Dashboard!$A$11:$A$12</c:f>
+              <c:f>Sales_Dashboard!$A$11:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Category01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Category02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Category03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Category04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Category05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sales_Dashboard!$C$11:$C$12</c:f>
+              <c:f>Sales_Dashboard!$C$11:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2769.3600000000006</c:v>
+                  <c:v>21054.280000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22769.639999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23752.840000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19238.300000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12226.379999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,65 +1941,77 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sales_Dashboard!$A$21:$A$29</c:f>
+              <c:f>Sales_Dashboard!$A$21:$A$31</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Product1</c:v>
+                  <c:v>Product18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Product3</c:v>
+                  <c:v>Product29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Product4</c:v>
+                  <c:v>Product31</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Product36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Product40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Product48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Product49</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Product5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>Product6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Product7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Product8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Product9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sales_Dashboard!$B$21:$B$29</c:f>
+              <c:f>Sales_Dashboard!$B$21:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2069.7600000000002</c:v>
+                  <c:v>19165.300000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1254</c:v>
+                  <c:v>14952.599999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2246.44</c:v>
+                  <c:v>29298.720000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>375.06</c:v>
+                  <c:v>16381.199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4092.0000000000005</c:v>
+                  <c:v>15789.900000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>392</c:v>
+                  <c:v>16674.280000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>281.60000000000002</c:v>
+                  <c:v>16236</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256.5</c:v>
+                  <c:v>18727.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18002.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24961.200000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1744,65 +2048,77 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sales_Dashboard!$A$21:$A$29</c:f>
+              <c:f>Sales_Dashboard!$A$21:$A$31</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Product1</c:v>
+                  <c:v>Product18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Product3</c:v>
+                  <c:v>Product29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Product4</c:v>
+                  <c:v>Product31</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Product36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Product40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Product48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Product49</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Product5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>Product6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Product7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Product8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Product9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sales_Dashboard!$C$21:$C$29</c:f>
+              <c:f>Sales_Dashboard!$C$21:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>501.76000000000022</c:v>
+                  <c:v>1742.3000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153.99999999999989</c:v>
+                  <c:v>3876.5999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>258.44000000000017</c:v>
+                  <c:v>7102.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109.06</c:v>
+                  <c:v>6453.2000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1612.0000000000005</c:v>
+                  <c:v>4974.9000000000015</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.999999999999972</c:v>
+                  <c:v>1918.2800000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.600000000000023</c:v>
+                  <c:v>1476.0000000000016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.5</c:v>
+                  <c:v>4855.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5234.880000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9833.2000000000044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2251,40 +2567,40 @@
                 <c:formatCode>_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>200.64</c:v>
+                  <c:v>44478.109999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.64</c:v>
+                  <c:v>30047.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>922.71</c:v>
+                  <c:v>51387.789999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>375.06</c:v>
+                  <c:v>36405.159999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160.46</c:v>
+                  <c:v>34154.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1841.4</c:v>
+                  <c:v>31580.750000000015</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>33883.200000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>281.60000000000002</c:v>
+                  <c:v>34339.43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>818.11</c:v>
+                  <c:v>37946.140000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2069.7600000000002</c:v>
+                  <c:v>33187.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>831.28</c:v>
+                  <c:v>32312.380000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3209.7000000000007</c:v>
+                  <c:v>36097.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2827,23 +3143,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sales_Dashboard!$D$37:$D$38</c:f>
+              <c:f>Sales_Dashboard!$D$37:$D$39</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Cash</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Online</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sales_Dashboard!$E$37:$E$38</c:f>
+              <c:f>Sales_Dashboard!$E$37:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10967.359999999999</c:v>
+                  <c:v>252031.47999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183788.95999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3186,23 +3508,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sales_Dashboard!$D$44:$D$45</c:f>
+              <c:f>Sales_Dashboard!$D$44:$D$47</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Online</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Retail Sales</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wholesaler</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sales_Dashboard!$E$44:$E$45</c:f>
+              <c:f>Sales_Dashboard!$E$44:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10967.359999999999</c:v>
+                  <c:v>154019.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95499.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>186301.58000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6341,8 +6675,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>37171</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="CATEGORY">
@@ -6365,7 +6699,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6419,8 +6753,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="PAYMENT MODE">
@@ -6443,7 +6777,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6497,8 +6831,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>130099</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="SALES TYPE">
@@ -6521,7 +6855,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6715,6 +7049,162 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>124642</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Years (DATE)">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B975EA9E-B366-0C9B-20DB-A69E5AF2FF31}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Years (DATE)"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11742964" y="2202725"/>
+              <a:ext cx="1879964" cy="858883"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>78377</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>107225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>70212</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Months (DATE)">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B58CA303-756A-C3C8-59D2-5BA9E2C09F15}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Months (DATE)"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11739698" y="3291296"/>
+              <a:ext cx="1828800" cy="3389811"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13293,1299 +13783,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC1403D3-0467-4A54-8F57-E3A429343E7F}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A20:C29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="428">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item x="368"/>
-        <item x="369"/>
-        <item x="370"/>
-        <item x="371"/>
-        <item x="372"/>
-        <item x="373"/>
-        <item x="374"/>
-        <item x="375"/>
-        <item x="376"/>
-        <item x="377"/>
-        <item x="378"/>
-        <item x="379"/>
-        <item x="380"/>
-        <item x="381"/>
-        <item x="382"/>
-        <item x="383"/>
-        <item x="384"/>
-        <item x="385"/>
-        <item x="386"/>
-        <item x="387"/>
-        <item x="388"/>
-        <item x="389"/>
-        <item x="390"/>
-        <item x="391"/>
-        <item x="392"/>
-        <item x="393"/>
-        <item x="394"/>
-        <item x="395"/>
-        <item x="396"/>
-        <item x="397"/>
-        <item x="398"/>
-        <item x="399"/>
-        <item x="400"/>
-        <item x="401"/>
-        <item x="402"/>
-        <item x="403"/>
-        <item x="404"/>
-        <item x="405"/>
-        <item x="406"/>
-        <item x="407"/>
-        <item x="408"/>
-        <item x="409"/>
-        <item x="410"/>
-        <item x="411"/>
-        <item x="412"/>
-        <item x="413"/>
-        <item x="414"/>
-        <item x="415"/>
-        <item x="416"/>
-        <item x="417"/>
-        <item x="418"/>
-        <item x="419"/>
-        <item x="420"/>
-        <item x="421"/>
-        <item x="422"/>
-        <item x="423"/>
-        <item x="424"/>
-        <item x="425"/>
-        <item x="426"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="51">
-        <item x="38"/>
-        <item x="29"/>
-        <item x="35"/>
-        <item x="9"/>
-        <item x="48"/>
-        <item x="16"/>
-        <item x="44"/>
-        <item x="20"/>
-        <item x="39"/>
-        <item x="18"/>
-        <item x="42"/>
-        <item x="21"/>
-        <item x="26"/>
-        <item x="15"/>
-        <item x="30"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="31"/>
-        <item x="40"/>
-        <item x="22"/>
-        <item x="6"/>
-        <item x="23"/>
-        <item x="17"/>
-        <item x="27"/>
-        <item x="7"/>
-        <item x="49"/>
-        <item x="25"/>
-        <item x="8"/>
-        <item x="19"/>
-        <item x="47"/>
-        <item x="43"/>
-        <item x="36"/>
-        <item x="34"/>
-        <item x="41"/>
-        <item x="13"/>
-        <item x="1"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="28"/>
-        <item x="33"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item x="32"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="3"/>
-        <item x="24"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="37"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="TOTAL SALES" fld="8" baseField="11" baseItem="21"/>
-    <dataField name="TOTAL PROFIT" fld="9" baseField="11" baseItem="21"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="61">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <conditionalFormats count="1">
-    <conditionalFormat type="all" priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="11" count="50">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-              <x v="20"/>
-              <x v="21"/>
-              <x v="22"/>
-              <x v="23"/>
-              <x v="24"/>
-              <x v="25"/>
-              <x v="26"/>
-              <x v="27"/>
-              <x v="28"/>
-              <x v="29"/>
-              <x v="30"/>
-              <x v="31"/>
-              <x v="32"/>
-              <x v="33"/>
-              <x v="34"/>
-              <x v="35"/>
-              <x v="36"/>
-              <x v="37"/>
-              <x v="38"/>
-              <x v="39"/>
-              <x v="40"/>
-              <x v="41"/>
-              <x v="42"/>
-              <x v="43"/>
-              <x v="44"/>
-              <x v="45"/>
-              <x v="46"/>
-              <x v="47"/>
-              <x v="48"/>
-              <x v="49"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <chartFormats count="2">
-    <chartFormat chart="7" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="11" type="count" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="10" filterVal="10"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1181E07-49F4-4CCB-BD16-5E574E7A5098}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A10:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="428">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item x="368"/>
-        <item x="369"/>
-        <item x="370"/>
-        <item x="371"/>
-        <item x="372"/>
-        <item x="373"/>
-        <item x="374"/>
-        <item x="375"/>
-        <item x="376"/>
-        <item x="377"/>
-        <item x="378"/>
-        <item x="379"/>
-        <item x="380"/>
-        <item x="381"/>
-        <item x="382"/>
-        <item x="383"/>
-        <item x="384"/>
-        <item x="385"/>
-        <item x="386"/>
-        <item x="387"/>
-        <item x="388"/>
-        <item x="389"/>
-        <item x="390"/>
-        <item x="391"/>
-        <item x="392"/>
-        <item x="393"/>
-        <item x="394"/>
-        <item x="395"/>
-        <item x="396"/>
-        <item x="397"/>
-        <item x="398"/>
-        <item x="399"/>
-        <item x="400"/>
-        <item x="401"/>
-        <item x="402"/>
-        <item x="403"/>
-        <item x="404"/>
-        <item x="405"/>
-        <item x="406"/>
-        <item x="407"/>
-        <item x="408"/>
-        <item x="409"/>
-        <item x="410"/>
-        <item x="411"/>
-        <item x="412"/>
-        <item x="413"/>
-        <item x="414"/>
-        <item x="415"/>
-        <item x="416"/>
-        <item x="417"/>
-        <item x="418"/>
-        <item x="419"/>
-        <item x="420"/>
-        <item x="421"/>
-        <item x="422"/>
-        <item x="423"/>
-        <item x="424"/>
-        <item x="425"/>
-        <item x="426"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="TOTAL SALES" fld="8" baseField="10" baseItem="0"/>
-    <dataField name="TOTAL PROFIT" fld="9" baseField="10" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="62">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A01A0E86-EC5B-4A31-8927-203CB3205A2D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="A1:D2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="15">
@@ -15026,15 +14223,15 @@
     <pivotField showAll="0">
       <items count="4">
         <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
         <item x="1"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15046,17 +14243,17 @@
     <pivotField showAll="0">
       <items count="6">
         <item x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="15">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -15069,7 +14266,7 @@
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
-        <item x="13"/>
+        <item h="1" x="13"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15121,7 +14318,7 @@
     <dataField name="Total Quantity Sold" fld="2" baseField="0" baseItem="3"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="63">
+    <format dxfId="140">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3" selected="0">
@@ -15145,9 +14342,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DA058A5-AC91-4F7A-A0CD-2AB96D4490A6}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="24">
-  <location ref="D43:E45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="D43:E47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0">
       <items count="428">
@@ -15586,15 +14783,15 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
         <item x="1"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15606,17 +14803,17 @@
     <pivotField showAll="0">
       <items count="6">
         <item x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="15">
-        <item sd="0" x="0"/>
+        <item h="1" sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
@@ -15629,7 +14826,7 @@
         <item sd="0" x="10"/>
         <item sd="0" x="11"/>
         <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
+        <item h="1" sd="0" x="13"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15657,9 +14854,15 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="4">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -15672,7 +14875,7 @@
     <dataField name="TOTAL SALES" fld="8" baseField="4" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="64">
+    <format dxfId="141">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15708,9 +14911,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14FA1367-C074-4DDF-9896-2C17961D31FA}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="21">
-  <location ref="D36:E38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="D36:E39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0">
       <items count="428">
@@ -16149,15 +15352,15 @@
     <pivotField showAll="0">
       <items count="4">
         <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="1"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16169,17 +15372,17 @@
     <pivotField showAll="0">
       <items count="6">
         <item x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="15">
-        <item sd="0" x="0"/>
+        <item h="1" sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
@@ -16192,7 +15395,7 @@
         <item sd="0" x="10"/>
         <item sd="0" x="11"/>
         <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
+        <item h="1" sd="0" x="13"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16220,9 +15423,12 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="3">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -16235,7 +15441,7 @@
     <dataField name="TOTAL SALES" fld="8" baseField="4" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="65">
+    <format dxfId="142">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16286,7 +15492,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62839A5C-5BC7-4344-A665-15271B7E9A33}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="10">
   <location ref="A36:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
@@ -16727,15 +15933,15 @@
     <pivotField showAll="0">
       <items count="4">
         <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
         <item x="1"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16747,17 +15953,17 @@
     <pivotField showAll="0">
       <items count="6">
         <item x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="15">
-        <item sd="0" x="0"/>
+        <item h="1" sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
@@ -16770,7 +15976,7 @@
         <item sd="0" x="10"/>
         <item sd="0" x="11"/>
         <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
+        <item h="1" sd="0" x="13"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16846,7 +16052,7 @@
     <dataField name="TOTAL SALES" fld="8" baseField="14" baseItem="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="60">
+    <format dxfId="143">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16856,6 +16062,1317 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC1403D3-0467-4A54-8F57-E3A429343E7F}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A20:C31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="428">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="377"/>
+        <item x="378"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="381"/>
+        <item x="382"/>
+        <item x="383"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="387"/>
+        <item x="388"/>
+        <item x="389"/>
+        <item x="390"/>
+        <item x="391"/>
+        <item x="392"/>
+        <item x="393"/>
+        <item x="394"/>
+        <item x="395"/>
+        <item x="396"/>
+        <item x="397"/>
+        <item x="398"/>
+        <item x="399"/>
+        <item x="400"/>
+        <item x="401"/>
+        <item x="402"/>
+        <item x="403"/>
+        <item x="404"/>
+        <item x="405"/>
+        <item x="406"/>
+        <item x="407"/>
+        <item x="408"/>
+        <item x="409"/>
+        <item x="410"/>
+        <item x="411"/>
+        <item x="412"/>
+        <item x="413"/>
+        <item x="414"/>
+        <item x="415"/>
+        <item x="416"/>
+        <item x="417"/>
+        <item x="418"/>
+        <item x="419"/>
+        <item x="420"/>
+        <item x="421"/>
+        <item x="422"/>
+        <item x="423"/>
+        <item x="424"/>
+        <item x="425"/>
+        <item x="426"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="51">
+        <item x="38"/>
+        <item x="29"/>
+        <item x="35"/>
+        <item x="9"/>
+        <item x="48"/>
+        <item x="16"/>
+        <item x="44"/>
+        <item x="20"/>
+        <item x="39"/>
+        <item x="18"/>
+        <item x="42"/>
+        <item x="21"/>
+        <item x="26"/>
+        <item x="15"/>
+        <item x="30"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="31"/>
+        <item x="40"/>
+        <item x="22"/>
+        <item x="6"/>
+        <item x="23"/>
+        <item x="17"/>
+        <item x="27"/>
+        <item x="7"/>
+        <item x="49"/>
+        <item x="25"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="47"/>
+        <item x="43"/>
+        <item x="36"/>
+        <item x="34"/>
+        <item x="41"/>
+        <item x="13"/>
+        <item x="1"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="28"/>
+        <item x="33"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="32"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="24"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="37"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item h="1" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="TOTAL SALES" fld="8" baseField="11" baseItem="21"/>
+    <dataField name="TOTAL PROFIT" fld="9" baseField="11" baseItem="21"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="144">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <conditionalFormats count="1">
+    <conditionalFormat type="all" priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="11" count="50">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+              <x v="25"/>
+              <x v="26"/>
+              <x v="27"/>
+              <x v="28"/>
+              <x v="29"/>
+              <x v="30"/>
+              <x v="31"/>
+              <x v="32"/>
+              <x v="33"/>
+              <x v="34"/>
+              <x v="35"/>
+              <x v="36"/>
+              <x v="37"/>
+              <x v="38"/>
+              <x v="39"/>
+              <x v="40"/>
+              <x v="41"/>
+              <x v="42"/>
+              <x v="43"/>
+              <x v="44"/>
+              <x v="45"/>
+              <x v="46"/>
+              <x v="47"/>
+              <x v="48"/>
+              <x v="49"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <chartFormats count="2">
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="11" type="count" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="10" filterVal="10"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1181E07-49F4-4CCB-BD16-5E574E7A5098}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A10:C16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="428">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="377"/>
+        <item x="378"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="381"/>
+        <item x="382"/>
+        <item x="383"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="387"/>
+        <item x="388"/>
+        <item x="389"/>
+        <item x="390"/>
+        <item x="391"/>
+        <item x="392"/>
+        <item x="393"/>
+        <item x="394"/>
+        <item x="395"/>
+        <item x="396"/>
+        <item x="397"/>
+        <item x="398"/>
+        <item x="399"/>
+        <item x="400"/>
+        <item x="401"/>
+        <item x="402"/>
+        <item x="403"/>
+        <item x="404"/>
+        <item x="405"/>
+        <item x="406"/>
+        <item x="407"/>
+        <item x="408"/>
+        <item x="409"/>
+        <item x="410"/>
+        <item x="411"/>
+        <item x="412"/>
+        <item x="413"/>
+        <item x="414"/>
+        <item x="415"/>
+        <item x="416"/>
+        <item x="417"/>
+        <item x="418"/>
+        <item x="419"/>
+        <item x="420"/>
+        <item x="421"/>
+        <item x="422"/>
+        <item x="423"/>
+        <item x="424"/>
+        <item x="425"/>
+        <item x="426"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item h="1" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="TOTAL SALES" fld="8" baseField="10" baseItem="0"/>
+    <dataField name="TOTAL PROFIT" fld="9" baseField="10" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="145">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -16887,10 +17404,10 @@
     <tabular pivotCacheId="659254079">
       <items count="5">
         <i x="3" s="1"/>
-        <i x="4"/>
-        <i x="0"/>
-        <i x="1"/>
-        <i x="2"/>
+        <i x="4" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
       </items>
     </tabular>
   </data>
@@ -16911,7 +17428,7 @@
     <tabular pivotCacheId="659254079">
       <items count="2">
         <i x="1" s="1"/>
-        <i x="0"/>
+        <i x="0" s="1"/>
       </items>
     </tabular>
   </data>
@@ -16932,8 +17449,69 @@
     <tabular pivotCacheId="659254079">
       <items count="3">
         <i x="1" s="1"/>
-        <i x="2"/>
-        <i x="0"/>
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Years__DATE" xr10:uid="{73B5267E-6B00-443E-9AD7-D896DC9EC91B}" sourceName="Years (DATE)">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable4"/>
+    <pivotTable tabId="3" name="PivotTable1"/>
+    <pivotTable tabId="3" name="PivotTable2"/>
+    <pivotTable tabId="3" name="PivotTable3"/>
+    <pivotTable tabId="3" name="PivotTable5"/>
+    <pivotTable tabId="3" name="PivotTable6"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="659254079" sortOrder="descending">
+      <items count="4">
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
+        <i x="3" s="1" nd="1"/>
+        <i x="0" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Months__DATE" xr10:uid="{9CA7C4EF-9B24-4389-8056-7AC00239398D}" sourceName="Months (DATE)">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable4"/>
+    <pivotTable tabId="3" name="PivotTable1"/>
+    <pivotTable tabId="3" name="PivotTable2"/>
+    <pivotTable tabId="3" name="PivotTable3"/>
+    <pivotTable tabId="3" name="PivotTable5"/>
+    <pivotTable tabId="3" name="PivotTable6"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="659254079">
+      <items count="14">
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
+        <i x="9" s="1"/>
+        <i x="10" s="1"/>
+        <i x="11" s="1"/>
+        <i x="12" s="1"/>
+        <i x="0" nd="1"/>
+        <i x="13" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -16945,6 +17523,8 @@
   <slicer name="CATEGORY" xr10:uid="{62AB6EAE-1359-41AB-9B38-D097217B99B8}" cache="Slicer_CATEGORY" caption="CATEGORY" rowHeight="234950"/>
   <slicer name="PAYMENT MODE" xr10:uid="{83CCF7BC-BEE9-42FB-8E3C-A50A17F321F2}" cache="Slicer_PAYMENT_MODE" caption="PAYMENT MODE" rowHeight="234950"/>
   <slicer name="SALES TYPE" xr10:uid="{E503A967-8E10-47EB-9BBA-EA9AC056095E}" cache="Slicer_SALES_TYPE" caption="SALES TYPE" rowHeight="234950"/>
+  <slicer name="Years (DATE)" xr10:uid="{5A9690E2-373D-421A-9CD1-57F0F3A330DB}" cache="Slicer_Years__DATE" caption="YEAR WISE" rowHeight="234950"/>
+  <slicer name="Months (DATE)" xr10:uid="{DEE8FD25-941C-45A5-B913-2D161EAAF7D0}" cache="Slicer_Months__DATE" caption="MONTH WISE" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -16952,7 +17532,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB796834-01AF-4426-BC6F-CF3147DC3853}" name="Table1" displayName="Table1" ref="A1:L428" totalsRowShown="0">
   <autoFilter ref="A1:L428" xr:uid="{CB796834-01AF-4426-BC6F-CF3147DC3853}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EDB02DAC-435A-44D4-B258-87663C64EB5D}" name="DATE" dataDxfId="71">
+    <tableColumn id="1" xr3:uid="{EDB02DAC-435A-44D4-B258-87663C64EB5D}" name="DATE" dataDxfId="151">
       <calculatedColumnFormula>+A1+2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{C142CDA9-9F23-4C99-AD1C-AB8BCE8E9545}" name="PRODUCT ID"/>
@@ -16968,16 +17548,16 @@
     <tableColumn id="8" xr3:uid="{9D3E38A2-DB2B-45EE-B47F-C8DEE270366C}" name="BUYING VALUE">
       <calculatedColumnFormula>PRODUCT($F2,$C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8C3A216C-277A-45C9-84A9-7DAF1213383A}" name="SELLING VALUE" dataDxfId="70">
+    <tableColumn id="9" xr3:uid="{8C3A216C-277A-45C9-84A9-7DAF1213383A}" name="SELLING VALUE" dataDxfId="150">
       <calculatedColumnFormula>PRODUCT(Table1[[#This Row],[SELLING PRICE]],Table1[[#This Row],[QTY]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{86ECEC40-866B-4C5E-A595-8CD15D662558}" name="PROFIT" dataDxfId="69">
+    <tableColumn id="10" xr3:uid="{86ECEC40-866B-4C5E-A595-8CD15D662558}" name="PROFIT" dataDxfId="149">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[SELLING VALUE]],-Table1[[#This Row],[BUYING VALUE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{3E58A5BA-7783-4A5B-8F45-61C5DBC5193E}" name="CATEGORY" dataDxfId="68">
+    <tableColumn id="11" xr3:uid="{3E58A5BA-7783-4A5B-8F45-61C5DBC5193E}" name="CATEGORY" dataDxfId="148">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[PRODUCT ID]],Catalogue!$A$2:$A$51,Catalogue!$C$2:$C$51,,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{13678889-2396-4D4C-820A-406113528516}" name="PRODUCT" dataDxfId="67">
+    <tableColumn id="12" xr3:uid="{13678889-2396-4D4C-820A-406113528516}" name="PRODUCT" dataDxfId="147">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[PRODUCT ID]],Catalogue!$A$2:$A$51,Catalogue!$B$2:$B$51,,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -37674,17 +38254,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16A4FEF-648A-4575-9592-E841CE00924F}">
   <dimension ref="A1:AP52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="39" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="AS19" sqref="AS19"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="56" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -37703,69 +38283,75 @@
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="2">
-        <v>8198</v>
+        <v>336779</v>
       </c>
       <c r="B2" s="2">
-        <v>10967.359999999999</v>
+        <v>435820.44000000035</v>
       </c>
       <c r="C2" s="2">
-        <v>2769.3600000000006</v>
-      </c>
-      <c r="D2" s="5">
-        <v>161</v>
+        <v>99041.439999999988</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4570</v>
       </c>
     </row>
     <row r="8" spans="1:42">
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
     </row>
     <row r="9" spans="1:42">
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
     </row>
     <row r="10" spans="1:42">
       <c r="A10" s="3" t="s">
@@ -37777,282 +38363,348 @@
       <c r="C10" t="s">
         <v>135</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>10967.359999999999</v>
+        <v>83629.280000000028</v>
       </c>
       <c r="C11" s="2">
-        <v>2769.3600000000006</v>
-      </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
+        <v>21054.280000000002</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2">
+        <v>101974.63999999996</v>
+      </c>
+      <c r="C12" s="2">
+        <v>22769.639999999996</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2">
+        <v>109913.84000000001</v>
+      </c>
+      <c r="C13" s="2">
+        <v>23752.840000000004</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="2">
+        <v>66378.299999999988</v>
+      </c>
+      <c r="C14" s="2">
+        <v>19238.300000000007</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="A15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="2">
+        <v>73924.380000000034</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12226.379999999997</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="2">
-        <v>10967.359999999999</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2769.3600000000006</v>
-      </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-    </row>
-    <row r="13" spans="1:42">
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-    </row>
-    <row r="14" spans="1:42">
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-    </row>
-    <row r="15" spans="1:42">
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="6"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="6"/>
-    </row>
-    <row r="16" spans="1:42">
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
+      <c r="B16" s="2">
+        <v>435820.44000000006</v>
+      </c>
+      <c r="C16" s="2">
+        <v>99041.44</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
     </row>
     <row r="17" spans="1:42">
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
     </row>
     <row r="18" spans="1:42">
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
     </row>
     <row r="19" spans="1:42">
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
     </row>
     <row r="20" spans="1:42">
       <c r="A20" s="3" t="s">
@@ -38064,501 +38716,567 @@
       <c r="C20" t="s">
         <v>135</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
     </row>
     <row r="21" spans="1:42">
       <c r="A21" s="4" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2">
-        <v>2069.7600000000002</v>
+        <v>19165.300000000003</v>
       </c>
       <c r="C21" s="2">
-        <v>501.76000000000022</v>
-      </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6"/>
-      <c r="AL21" s="6"/>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="6"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
+        <v>1742.3000000000011</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
     </row>
     <row r="22" spans="1:42">
       <c r="A22" s="4" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2">
-        <v>1254</v>
+        <v>14952.599999999997</v>
       </c>
       <c r="C22" s="2">
-        <v>153.99999999999989</v>
-      </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
+        <v>3876.5999999999995</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
     </row>
     <row r="23" spans="1:42">
       <c r="A23" s="4" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B23" s="2">
-        <v>2246.44</v>
+        <v>29298.720000000001</v>
       </c>
       <c r="C23" s="2">
-        <v>258.44000000000017</v>
-      </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
+        <v>7102.72</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
     </row>
     <row r="24" spans="1:42">
       <c r="A24" s="4" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B24" s="2">
-        <v>375.06</v>
+        <v>16381.199999999999</v>
       </c>
       <c r="C24" s="2">
-        <v>109.06</v>
-      </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6"/>
-      <c r="AK24" s="6"/>
-      <c r="AL24" s="6"/>
-      <c r="AM24" s="6"/>
-      <c r="AN24" s="6"/>
-      <c r="AO24" s="6"/>
-      <c r="AP24" s="6"/>
+        <v>6453.2000000000007</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
     </row>
     <row r="25" spans="1:42">
       <c r="A25" s="4" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B25" s="2">
-        <v>4092.0000000000005</v>
+        <v>15789.900000000003</v>
       </c>
       <c r="C25" s="2">
-        <v>1612.0000000000005</v>
-      </c>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="6"/>
-      <c r="AK25" s="6"/>
-      <c r="AL25" s="6"/>
-      <c r="AM25" s="6"/>
-      <c r="AN25" s="6"/>
-      <c r="AO25" s="6"/>
-      <c r="AP25" s="6"/>
+        <v>4974.9000000000015</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
     </row>
     <row r="26" spans="1:42">
       <c r="A26" s="4" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B26" s="2">
-        <v>392</v>
+        <v>16674.280000000002</v>
       </c>
       <c r="C26" s="2">
-        <v>41.999999999999972</v>
-      </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="6"/>
-      <c r="AM26" s="6"/>
-      <c r="AN26" s="6"/>
-      <c r="AO26" s="6"/>
-      <c r="AP26" s="6"/>
+        <v>1918.2800000000004</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
     </row>
     <row r="27" spans="1:42">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="B27" s="2">
-        <v>281.60000000000002</v>
+        <v>16236</v>
       </c>
       <c r="C27" s="2">
-        <v>25.600000000000023</v>
-      </c>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="6"/>
-      <c r="AK27" s="6"/>
-      <c r="AL27" s="6"/>
-      <c r="AM27" s="6"/>
-      <c r="AN27" s="6"/>
-      <c r="AO27" s="6"/>
-      <c r="AP27" s="6"/>
+        <v>1476.0000000000016</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
     </row>
     <row r="28" spans="1:42">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="B28" s="2">
-        <v>256.5</v>
+        <v>18727.199999999997</v>
       </c>
       <c r="C28" s="2">
-        <v>66.5</v>
-      </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="6"/>
-      <c r="AJ28" s="6"/>
-      <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="6"/>
-      <c r="AO28" s="6"/>
-      <c r="AP28" s="6"/>
+        <v>4855.2</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
     </row>
     <row r="29" spans="1:42">
       <c r="A29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2">
+        <v>18002.88</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5234.880000000001</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+    </row>
+    <row r="30" spans="1:42">
+      <c r="A30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2">
+        <v>24961.200000000008</v>
+      </c>
+      <c r="C30" s="2">
+        <v>9833.2000000000044</v>
+      </c>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+    </row>
+    <row r="31" spans="1:42">
+      <c r="A31" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="2">
-        <v>10967.360000000002</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2769.3600000000006</v>
-      </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6"/>
-      <c r="AK29" s="6"/>
-      <c r="AL29" s="6"/>
-      <c r="AM29" s="6"/>
-      <c r="AN29" s="6"/>
-      <c r="AO29" s="6"/>
-      <c r="AP29" s="6"/>
-    </row>
-    <row r="30" spans="1:42">
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6"/>
-      <c r="AK30" s="6"/>
-      <c r="AL30" s="6"/>
-      <c r="AM30" s="6"/>
-      <c r="AN30" s="6"/>
-      <c r="AO30" s="6"/>
-      <c r="AP30" s="6"/>
-    </row>
-    <row r="31" spans="1:42">
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="6"/>
-      <c r="AK31" s="6"/>
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="6"/>
-      <c r="AN31" s="6"/>
-      <c r="AO31" s="6"/>
-      <c r="AP31" s="6"/>
+      <c r="B31" s="2">
+        <v>190189.28000000003</v>
+      </c>
+      <c r="C31" s="2">
+        <v>47467.280000000006</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
     </row>
     <row r="32" spans="1:42">
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="6"/>
-      <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
-      <c r="AM32" s="6"/>
-      <c r="AN32" s="6"/>
-      <c r="AO32" s="6"/>
-      <c r="AP32" s="6"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
     </row>
     <row r="33" spans="1:42">
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="6"/>
-      <c r="AK33" s="6"/>
-      <c r="AL33" s="6"/>
-      <c r="AM33" s="6"/>
-      <c r="AN33" s="6"/>
-      <c r="AO33" s="6"/>
-      <c r="AP33" s="6"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
     </row>
     <row r="34" spans="1:42">
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="6"/>
-      <c r="AK34" s="6"/>
-      <c r="AL34" s="6"/>
-      <c r="AM34" s="6"/>
-      <c r="AN34" s="6"/>
-      <c r="AO34" s="6"/>
-      <c r="AP34" s="6"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
     </row>
     <row r="35" spans="1:42">
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
-      <c r="AI35" s="6"/>
-      <c r="AJ35" s="6"/>
-      <c r="AK35" s="6"/>
-      <c r="AL35" s="6"/>
-      <c r="AM35" s="6"/>
-      <c r="AN35" s="6"/>
-      <c r="AO35" s="6"/>
-      <c r="AP35" s="6"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
     </row>
     <row r="36" spans="1:42">
       <c r="A36" s="3" t="s">
@@ -38573,241 +39291,268 @@
       <c r="E36" t="s">
         <v>134</v>
       </c>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="6"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
     </row>
     <row r="37" spans="1:42">
       <c r="A37" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B37" s="2">
-        <v>200.64</v>
+        <v>44478.109999999993</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E37" s="2">
-        <v>10967.359999999999</v>
-      </c>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="6"/>
-      <c r="AD37" s="6"/>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
-      <c r="AH37" s="6"/>
-      <c r="AI37" s="6"/>
-      <c r="AJ37" s="6"/>
-      <c r="AK37" s="6"/>
-      <c r="AL37" s="6"/>
-      <c r="AM37" s="6"/>
-      <c r="AN37" s="6"/>
-      <c r="AO37" s="6"/>
-      <c r="AP37" s="6"/>
+        <v>252031.47999999992</v>
+      </c>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
     </row>
     <row r="38" spans="1:42">
       <c r="A38" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B38" s="2">
-        <v>200.64</v>
+        <v>30047.25</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E38" s="2">
-        <v>10967.359999999999</v>
-      </c>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="6"/>
-      <c r="AL38" s="6"/>
-      <c r="AM38" s="6"/>
-      <c r="AN38" s="6"/>
-      <c r="AO38" s="6"/>
-      <c r="AP38" s="6"/>
+        <v>183788.95999999996</v>
+      </c>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
     </row>
     <row r="39" spans="1:42">
       <c r="A39" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B39" s="2">
-        <v>922.71</v>
-      </c>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6"/>
-      <c r="AD39" s="6"/>
-      <c r="AE39" s="6"/>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
-      <c r="AH39" s="6"/>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="6"/>
-      <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
-      <c r="AM39" s="6"/>
-      <c r="AN39" s="6"/>
-      <c r="AO39" s="6"/>
-      <c r="AP39" s="6"/>
+        <v>51387.789999999994</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="2">
+        <v>435820.43999999989</v>
+      </c>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
     </row>
     <row r="40" spans="1:42">
       <c r="A40" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B40" s="2">
-        <v>375.06</v>
-      </c>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="6"/>
-      <c r="AL40" s="6"/>
-      <c r="AM40" s="6"/>
-      <c r="AN40" s="6"/>
-      <c r="AO40" s="6"/>
-      <c r="AP40" s="6"/>
+        <v>36405.159999999996</v>
+      </c>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
     </row>
     <row r="41" spans="1:42">
       <c r="A41" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B41" s="2">
-        <v>160.46</v>
-      </c>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6"/>
-      <c r="AD41" s="6"/>
-      <c r="AE41" s="6"/>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
-      <c r="AH41" s="6"/>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="6"/>
-      <c r="AK41" s="6"/>
-      <c r="AL41" s="6"/>
-      <c r="AM41" s="6"/>
-      <c r="AN41" s="6"/>
-      <c r="AO41" s="6"/>
-      <c r="AP41" s="6"/>
+        <v>34154.9</v>
+      </c>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
     </row>
     <row r="42" spans="1:42">
       <c r="A42" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B42" s="2">
-        <v>1841.4</v>
-      </c>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="6"/>
-      <c r="AK42" s="6"/>
-      <c r="AL42" s="6"/>
-      <c r="AM42" s="6"/>
-      <c r="AN42" s="6"/>
-      <c r="AO42" s="6"/>
-      <c r="AP42" s="6"/>
+        <v>31580.750000000015</v>
+      </c>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
     </row>
     <row r="43" spans="1:42">
       <c r="A43" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B43" s="2">
-        <v>56</v>
+        <v>33883.200000000004</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>132</v>
@@ -38815,320 +39560,363 @@
       <c r="E43" t="s">
         <v>134</v>
       </c>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
-      <c r="AI43" s="6"/>
-      <c r="AJ43" s="6"/>
-      <c r="AK43" s="6"/>
-      <c r="AL43" s="6"/>
-      <c r="AM43" s="6"/>
-      <c r="AN43" s="6"/>
-      <c r="AO43" s="6"/>
-      <c r="AP43" s="6"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
     </row>
     <row r="44" spans="1:42">
       <c r="A44" s="4" t="s">
         <v>143</v>
       </c>
       <c r="B44" s="2">
-        <v>281.60000000000002</v>
+        <v>34339.43</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E44" s="2">
-        <v>10967.359999999999</v>
-      </c>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
-      <c r="AB44" s="6"/>
-      <c r="AC44" s="6"/>
-      <c r="AD44" s="6"/>
-      <c r="AE44" s="6"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6"/>
-      <c r="AH44" s="6"/>
-      <c r="AI44" s="6"/>
-      <c r="AJ44" s="6"/>
-      <c r="AK44" s="6"/>
-      <c r="AL44" s="6"/>
-      <c r="AM44" s="6"/>
-      <c r="AN44" s="6"/>
-      <c r="AO44" s="6"/>
-      <c r="AP44" s="6"/>
+        <v>154019.16</v>
+      </c>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
     </row>
     <row r="45" spans="1:42">
       <c r="A45" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B45" s="2">
-        <v>818.11</v>
+        <v>37946.140000000007</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E45" s="2">
-        <v>10967.359999999999</v>
-      </c>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="6"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="6"/>
-      <c r="AJ45" s="6"/>
-      <c r="AK45" s="6"/>
-      <c r="AL45" s="6"/>
-      <c r="AM45" s="6"/>
-      <c r="AN45" s="6"/>
-      <c r="AO45" s="6"/>
-      <c r="AP45" s="6"/>
+        <v>95499.7</v>
+      </c>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
     </row>
     <row r="46" spans="1:42">
       <c r="A46" s="4" t="s">
         <v>145</v>
       </c>
       <c r="B46" s="2">
-        <v>2069.7600000000002</v>
-      </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6"/>
-      <c r="AE46" s="6"/>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="6"/>
-      <c r="AH46" s="6"/>
-      <c r="AI46" s="6"/>
-      <c r="AJ46" s="6"/>
-      <c r="AK46" s="6"/>
-      <c r="AL46" s="6"/>
-      <c r="AM46" s="6"/>
-      <c r="AN46" s="6"/>
-      <c r="AO46" s="6"/>
-      <c r="AP46" s="6"/>
+        <v>33187.4</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="2">
+        <v>186301.58000000002</v>
+      </c>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
     </row>
     <row r="47" spans="1:42">
       <c r="A47" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B47" s="2">
-        <v>831.28</v>
-      </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6"/>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6"/>
-      <c r="AE47" s="6"/>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="6"/>
-      <c r="AH47" s="6"/>
-      <c r="AI47" s="6"/>
-      <c r="AJ47" s="6"/>
-      <c r="AK47" s="6"/>
-      <c r="AL47" s="6"/>
-      <c r="AM47" s="6"/>
-      <c r="AN47" s="6"/>
-      <c r="AO47" s="6"/>
-      <c r="AP47" s="6"/>
+        <v>32312.380000000005</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="2">
+        <v>435820.44</v>
+      </c>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
     </row>
     <row r="48" spans="1:42">
       <c r="A48" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B48" s="2">
-        <v>3209.7000000000007</v>
-      </c>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6"/>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6"/>
-      <c r="AE48" s="6"/>
-      <c r="AF48" s="6"/>
-      <c r="AG48" s="6"/>
-      <c r="AH48" s="6"/>
-      <c r="AI48" s="6"/>
-      <c r="AJ48" s="6"/>
-      <c r="AK48" s="6"/>
-      <c r="AL48" s="6"/>
-      <c r="AM48" s="6"/>
-      <c r="AN48" s="6"/>
-      <c r="AO48" s="6"/>
-      <c r="AP48" s="6"/>
+        <v>36097.93</v>
+      </c>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
     </row>
     <row r="49" spans="1:42">
       <c r="A49" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B49" s="2">
-        <v>10967.36</v>
-      </c>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
-      <c r="AB49" s="6"/>
-      <c r="AC49" s="6"/>
-      <c r="AD49" s="6"/>
-      <c r="AE49" s="6"/>
-      <c r="AF49" s="6"/>
-      <c r="AG49" s="6"/>
-      <c r="AH49" s="6"/>
-      <c r="AI49" s="6"/>
-      <c r="AJ49" s="6"/>
-      <c r="AK49" s="6"/>
-      <c r="AL49" s="6"/>
-      <c r="AM49" s="6"/>
-      <c r="AN49" s="6"/>
-      <c r="AO49" s="6"/>
-      <c r="AP49" s="6"/>
+        <v>435820.44</v>
+      </c>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
     </row>
     <row r="50" spans="1:42">
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
-      <c r="AB50" s="6"/>
-      <c r="AC50" s="6"/>
-      <c r="AD50" s="6"/>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="6"/>
-      <c r="AG50" s="6"/>
-      <c r="AH50" s="6"/>
-      <c r="AI50" s="6"/>
-      <c r="AJ50" s="6"/>
-      <c r="AK50" s="6"/>
-      <c r="AL50" s="6"/>
-      <c r="AM50" s="6"/>
-      <c r="AN50" s="6"/>
-      <c r="AO50" s="6"/>
-      <c r="AP50" s="6"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
     </row>
     <row r="51" spans="1:42">
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="6"/>
-      <c r="AB51" s="6"/>
-      <c r="AC51" s="6"/>
-      <c r="AD51" s="6"/>
-      <c r="AE51" s="6"/>
-      <c r="AF51" s="6"/>
-      <c r="AG51" s="6"/>
-      <c r="AH51" s="6"/>
-      <c r="AI51" s="6"/>
-      <c r="AJ51" s="6"/>
-      <c r="AK51" s="6"/>
-      <c r="AL51" s="6"/>
-      <c r="AM51" s="6"/>
-      <c r="AN51" s="6"/>
-      <c r="AO51" s="6"/>
-      <c r="AP51" s="6"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
     </row>
     <row r="52" spans="1:42">
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="6"/>
-      <c r="AC52" s="6"/>
-      <c r="AD52" s="6"/>
-      <c r="AE52" s="6"/>
-      <c r="AF52" s="6"/>
-      <c r="AG52" s="6"/>
-      <c r="AH52" s="6"/>
-      <c r="AI52" s="6"/>
-      <c r="AJ52" s="6"/>
-      <c r="AK52" s="6"/>
-      <c r="AL52" s="6"/>
-      <c r="AM52" s="6"/>
-      <c r="AN52" s="6"/>
-      <c r="AO52" s="6"/>
-      <c r="AP52" s="6"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="S8:AM52"/>
     <mergeCell ref="AN8:AP52"/>
+    <mergeCell ref="P8:R52"/>
   </mergeCells>
-  <conditionalFormatting pivot="1" sqref="B21:B28">
-    <cfRule type="top10" dxfId="66" priority="1" rank="10"/>
+  <conditionalFormatting pivot="1" sqref="B21:B30">
+    <cfRule type="top10" dxfId="146" priority="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId7"/>
